--- a/server/data/projects.xlsx
+++ b/server/data/projects.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,9 +502,56 @@
         <v>1744003083264</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1744625747268</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Caterpillar</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Hybrid Seat Allocation</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PI</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Copi</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2023-2024</v>
+      </c>
+      <c r="H3" t="str">
+        <v>20000</v>
+      </c>
+      <c r="I3" t="str">
+        <v>10000</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Details</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v>h</v>
+      </c>
+      <c r="M3" t="str">
+        <v>agreementDocument-1744625747215-658333568.pdf</v>
+      </c>
+      <c r="O3" t="str">
+        <v>2025-04-14T10:15:47.268Z</v>
+      </c>
+      <c r="P3" t="str">
+        <v>1744624259342</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/data/projects.xlsx
+++ b/server/data/projects.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,9 +549,59 @@
         <v>1744624259342</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>1744633011051</v>
+      </c>
+      <c r="B4" t="str">
+        <v>strategy fox</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>VR game</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Vishal</v>
+      </c>
+      <c r="F4" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2023-2024</v>
+      </c>
+      <c r="H4" t="str">
+        <v>50000</v>
+      </c>
+      <c r="I4" t="str">
+        <v>50000</v>
+      </c>
+      <c r="J4" t="str">
+        <v>NA</v>
+      </c>
+      <c r="K4" t="str">
+        <v>NA</v>
+      </c>
+      <c r="L4" t="str">
+        <v>NA</v>
+      </c>
+      <c r="M4" t="str">
+        <v>agreementDocument-1744633011045-909105401.pdf</v>
+      </c>
+      <c r="N4" t="str">
+        <v>billSettlementProof-1744633011043-117583223.pdf</v>
+      </c>
+      <c r="O4" t="str">
+        <v>2025-04-14T12:16:51.051Z</v>
+      </c>
+      <c r="P4" t="str">
+        <v>1744003743096</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/data/projects.xlsx
+++ b/server/data/projects.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -599,9 +599,209 @@
         <v>1744003743096</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>1744648490936</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Dropsi</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Dropsi</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Vineeth</v>
+      </c>
+      <c r="F5" t="str">
+        <v>NA</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2021-2022</v>
+      </c>
+      <c r="H5" t="str">
+        <v>150000</v>
+      </c>
+      <c r="I5" t="str">
+        <v>72996</v>
+      </c>
+      <c r="J5" t="str">
+        <v>NA</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Vineeth,2210369,Developer</v>
+      </c>
+      <c r="L5" t="str">
+        <v>NA</v>
+      </c>
+      <c r="M5" t="str">
+        <v>agreementDocument-1744648490932-864031002.pdf</v>
+      </c>
+      <c r="N5" t="str">
+        <v>billSettlementProof-1744648490932-553258792.pdf</v>
+      </c>
+      <c r="O5" t="str">
+        <v>2025-04-14T16:34:50.936Z</v>
+      </c>
+      <c r="P5" t="str">
+        <v>1744003743096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>1744648699841</v>
+      </c>
+      <c r="B6" t="str">
+        <v>DhanaSakhi</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>DhanaSakhi</v>
+      </c>
+      <c r="E6" t="str">
+        <v>kumar</v>
+      </c>
+      <c r="F6" t="str">
+        <v>ram</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2020-2021</v>
+      </c>
+      <c r="H6" t="str">
+        <v>250000</v>
+      </c>
+      <c r="I6" t="str">
+        <v>134000</v>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v>NA</v>
+      </c>
+      <c r="L6" t="str">
+        <v>NA</v>
+      </c>
+      <c r="M6" t="str">
+        <v>agreementDocument-1744648699836-860067063.pdf</v>
+      </c>
+      <c r="N6" t="str">
+        <v>billSettlementProof-1744648699835-861517033.pdf</v>
+      </c>
+      <c r="O6" t="str">
+        <v>2025-04-14T16:38:19.841Z</v>
+      </c>
+      <c r="P6" t="str">
+        <v>1744003743096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>1744648849921</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CAMS</v>
+      </c>
+      <c r="C7" t="str">
+        <v>13</v>
+      </c>
+      <c r="D7" t="str">
+        <v>CAMS</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Raju</v>
+      </c>
+      <c r="F7" t="str">
+        <v>karthik</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2023-2024</v>
+      </c>
+      <c r="H7" t="str">
+        <v>44000</v>
+      </c>
+      <c r="I7" t="str">
+        <v>13000</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>NA</v>
+      </c>
+      <c r="L7" t="str">
+        <v>NA</v>
+      </c>
+      <c r="M7" t="str">
+        <v>agreementDocument-1744648849915-804267083.pdf</v>
+      </c>
+      <c r="N7" t="str">
+        <v>billSettlementProof-1744648849913-346096199.pdf</v>
+      </c>
+      <c r="O7" t="str">
+        <v>2025-04-14T16:40:49.921Z</v>
+      </c>
+      <c r="P7" t="str">
+        <v>1744003743096</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>1744649563063</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Renewable Energy</v>
+      </c>
+      <c r="C8" t="str">
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Green Grid Optimization</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Dr. Anil Kumar</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Dr. Neha Rao</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2024-2025</v>
+      </c>
+      <c r="H8" t="str">
+        <v>80000</v>
+      </c>
+      <c r="I8" t="str">
+        <v>60000</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>NA</v>
+      </c>
+      <c r="L8" t="str">
+        <v>NA</v>
+      </c>
+      <c r="M8" t="str">
+        <v>agreementDocument-1744649563061-716041782.pdf</v>
+      </c>
+      <c r="N8" t="str">
+        <v>billSettlementProof-1744649563059-729845775.pdf</v>
+      </c>
+      <c r="O8" t="str">
+        <v>2025-04-14T16:52:43.063Z</v>
+      </c>
+      <c r="P8" t="str">
+        <v>1744003743096</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P8"/>
   </ignoredErrors>
 </worksheet>
 </file>